--- a/ABC/ABC過去問埋め.xlsx
+++ b/ABC/ABC過去問埋め.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="15075" windowHeight="25395"/>
+    <workbookView xWindow="600" yWindow="45" windowWidth="15075" windowHeight="25395" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="解法ヒント" sheetId="3" r:id="rId3"/>
+    <sheet name="解法ヒント_補足" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="146">
   <si>
     <t>C</t>
     <phoneticPr fontId="1"/>
@@ -376,6 +377,653 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC129</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Typical Stairs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC130</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rectangle Cutting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enough Array</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC131</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Megalomania</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Anti-Division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC132</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Divide the Problems</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Blue and Red Balls</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二項定理</t>
+    <rPh sb="0" eb="4">
+      <t>ニコウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC133</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Remainder Minimization 2019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rain Flows into Dams</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC134</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Preparing Boxes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約数列挙</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レッキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC135</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>City Savers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Digits Parade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC136</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Build Stairs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gathering Children</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全探索できないか？</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンタンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック項目</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>答えで二分探索できないか？</t>
+    <rPh sb="0" eb="1">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニブン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7,14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「最小値の最大化」を問う問題などで使える。</t>
+    <rPh sb="1" eb="3">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サイダイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソートすることで処理しやすくならないか？</t>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>典型90</t>
+    <rPh sb="0" eb="2">
+      <t>テンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3要素全探索が必要と見せかけて実は2要素全探索で済むケースがある。</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ゼンタンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ゼンタンサク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■対数</t>
+    <rPh sb="1" eb="3">
+      <t>タイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://juken-mikata.net/how-to/mathematics/logarithm.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「解法ヒント_補足」の対数の項目参照</t>
+    <rPh sb="11" eb="13">
+      <t>タイスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全般</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組み合わせ</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,Bが決まればCは確定できないか？</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>式変形で整数の計算に置き換えられないか？</t>
+    <rPh sb="0" eb="3">
+      <t>シキヘンケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2,32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・N&lt;=10なら、順列全探索しても間に合う。
+・N&lt;=20なら、bit全探索しても間に合う。</t>
+    <rPh sb="9" eb="11">
+      <t>ジュンレツ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ゼンタンサク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ゼンタンサク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全般</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,Bをごちゃまぜしてソートできないか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貪欲法で有効になる場合がある。</t>
+    <rPh sb="0" eb="3">
+      <t>ドンヨクホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順番そのものに意味がない配列を処理・走査する場合に超有効。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円環は列を二倍にして処理できないか？</t>
+    <rPh sb="0" eb="2">
+      <t>エンカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終端とスタートがつながる問題で有効</t>
+    <rPh sb="0" eb="2">
+      <t>シュウタン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆順で処理できないか？</t>
+    <rPh sb="0" eb="2">
+      <t>ギャクジュン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「○○○○○××××〇〇○」を「○5 ×4 ○3」に圧縮</t>
+    <rPh sb="26" eb="28">
+      <t>アッシュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「文字×連続回数」の形に圧縮できないか？</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アッシュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題の簡単版を作れないか？</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ、例</t>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「文字列から"atcoder"を探す」問題は、「"at"を探す」問題に簡易化して考えてみる。</t>
+    <rPh sb="1" eb="4">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>カンイカ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連結判定はUnion-Find</t>
+    <rPh sb="0" eb="2">
+      <t>レンケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の直径は探索2回</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>積み木問題など、重なりを調べる場合はいもす法</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「条件」を満たす「区間」の最長・最短を探す場合は尺取法</t>
+    <rPh sb="13" eb="15">
+      <t>サイチョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シャクトリ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nが10^18など異常に大きい場合は、これを考える</t>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何度も処理を行うと同じループにならないか？（周期性がないか？）</t>
+    <rPh sb="0" eb="2">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>シュウキセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絶対値累積の最小値を求める場合、中央値を採用する</t>
+    <rPh sb="0" eb="3">
+      <t>ゼッタイチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ルイセキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,7 +1031,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,16 +1054,50 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -423,21 +1105,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,6 +1167,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="対数　性質　修正後"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="47624" y="552451"/>
+          <a:ext cx="6438901" cy="3238315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1268,6 +2047,299 @@
         <v>41</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1277,12 +2349,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>82</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1290,13 +2405,355 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="68.25" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>